--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H2">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.018253</v>
+        <v>0.003305</v>
       </c>
       <c r="N2">
-        <v>0.054759</v>
+        <v>0.009915</v>
       </c>
       <c r="O2">
-        <v>0.04950248014124195</v>
+        <v>0.00777996699693274</v>
       </c>
       <c r="P2">
-        <v>0.04950248014124194</v>
+        <v>0.00777996699693274</v>
       </c>
       <c r="Q2">
-        <v>0.03801467737766667</v>
+        <v>0.002415982541666667</v>
       </c>
       <c r="R2">
-        <v>0.342132096399</v>
+        <v>0.021743842875</v>
       </c>
       <c r="S2">
-        <v>0.002337457771684705</v>
+        <v>0.0001302157568188873</v>
       </c>
       <c r="T2">
-        <v>0.002337457771684704</v>
+        <v>0.0001302157568188873</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H3">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I3">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J3">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.777072</v>
       </c>
       <c r="O3">
-        <v>0.7024779716268588</v>
+        <v>0.6097422606394873</v>
       </c>
       <c r="P3">
-        <v>0.7024779716268588</v>
+        <v>0.6097422606394874</v>
       </c>
       <c r="Q3">
-        <v>0.5394572833546667</v>
+        <v>0.1893487025333333</v>
       </c>
       <c r="R3">
-        <v>4.855115550192</v>
+        <v>1.7041383228</v>
       </c>
       <c r="S3">
-        <v>0.03317030963966793</v>
+        <v>0.0102054481677021</v>
       </c>
       <c r="T3">
-        <v>0.03317030963966793</v>
+        <v>0.01020544816770211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H4">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I4">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J4">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09145199999999999</v>
+        <v>0.16248</v>
       </c>
       <c r="N4">
-        <v>0.274356</v>
+        <v>0.48744</v>
       </c>
       <c r="O4">
-        <v>0.2480195482318993</v>
+        <v>0.3824777723635798</v>
       </c>
       <c r="P4">
-        <v>0.2480195482318993</v>
+        <v>0.3824777723635799</v>
       </c>
       <c r="Q4">
-        <v>0.190462843124</v>
+        <v>0.118774234</v>
       </c>
       <c r="R4">
-        <v>1.714165588116</v>
+        <v>1.068968106</v>
       </c>
       <c r="S4">
-        <v>0.01171123585909766</v>
+        <v>0.006401650882884358</v>
       </c>
       <c r="T4">
-        <v>0.01171123585909766</v>
+        <v>0.006401650882884359</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>111.84666</v>
       </c>
       <c r="I5">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J5">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.018253</v>
+        <v>0.003305</v>
       </c>
       <c r="N5">
-        <v>0.054759</v>
+        <v>0.009915</v>
       </c>
       <c r="O5">
-        <v>0.04950248014124195</v>
+        <v>0.00777996699693274</v>
       </c>
       <c r="P5">
-        <v>0.04950248014124194</v>
+        <v>0.00777996699693274</v>
       </c>
       <c r="Q5">
-        <v>0.6805123616600001</v>
+        <v>0.1232177371</v>
       </c>
       <c r="R5">
-        <v>6.12461125494</v>
+        <v>1.1089596339</v>
       </c>
       <c r="S5">
-        <v>0.04184354618314307</v>
+        <v>0.006641145212464411</v>
       </c>
       <c r="T5">
-        <v>0.04184354618314307</v>
+        <v>0.006641145212464411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>111.84666</v>
       </c>
       <c r="I6">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J6">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>0.777072</v>
       </c>
       <c r="O6">
-        <v>0.7024779716268588</v>
+        <v>0.6097422606394873</v>
       </c>
       <c r="P6">
-        <v>0.7024779716268588</v>
+        <v>0.6097422606394874</v>
       </c>
       <c r="Q6">
-        <v>9.65698975328</v>
+        <v>9.656989753279998</v>
       </c>
       <c r="R6">
-        <v>86.91290777952</v>
+        <v>86.91290777951998</v>
       </c>
       <c r="S6">
-        <v>0.5937918537523941</v>
+        <v>0.5204889553746993</v>
       </c>
       <c r="T6">
-        <v>0.5937918537523942</v>
+        <v>0.5204889553746994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>111.84666</v>
       </c>
       <c r="I7">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J7">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.09145199999999999</v>
+        <v>0.16248</v>
       </c>
       <c r="N7">
-        <v>0.274356</v>
+        <v>0.48744</v>
       </c>
       <c r="O7">
-        <v>0.2480195482318993</v>
+        <v>0.3824777723635798</v>
       </c>
       <c r="P7">
-        <v>0.2480195482318993</v>
+        <v>0.3824777723635799</v>
       </c>
       <c r="Q7">
-        <v>3.40953358344</v>
+        <v>6.057615105599998</v>
       </c>
       <c r="R7">
-        <v>30.68580225096</v>
+        <v>54.51853595039999</v>
       </c>
       <c r="S7">
-        <v>0.2096464134959075</v>
+        <v>0.3264911570714727</v>
       </c>
       <c r="T7">
-        <v>0.2096464134959075</v>
+        <v>0.3264911570714727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H8">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I8">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J8">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.018253</v>
+        <v>0.003305</v>
       </c>
       <c r="N8">
-        <v>0.054759</v>
+        <v>0.009915</v>
       </c>
       <c r="O8">
-        <v>0.04950248014124195</v>
+        <v>0.00777996699693274</v>
       </c>
       <c r="P8">
-        <v>0.04950248014124194</v>
+        <v>0.00777996699693274</v>
       </c>
       <c r="Q8">
-        <v>0.08654453691100002</v>
+        <v>0.01871336168333333</v>
       </c>
       <c r="R8">
-        <v>0.7789008321990001</v>
+        <v>0.16842025515</v>
       </c>
       <c r="S8">
-        <v>0.005321476186414173</v>
+        <v>0.001008606027649441</v>
       </c>
       <c r="T8">
-        <v>0.005321476186414172</v>
+        <v>0.001008606027649441</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H9">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I9">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J9">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>0.777072</v>
       </c>
       <c r="O9">
-        <v>0.7024779716268588</v>
+        <v>0.6097422606394873</v>
       </c>
       <c r="P9">
-        <v>0.7024779716268588</v>
+        <v>0.6097422606394874</v>
       </c>
       <c r="Q9">
-        <v>1.228133026288</v>
+        <v>1.466629287946666</v>
       </c>
       <c r="R9">
-        <v>11.053197236592</v>
+        <v>13.19966359152</v>
       </c>
       <c r="S9">
-        <v>0.07551580823479671</v>
+        <v>0.07904785709708584</v>
       </c>
       <c r="T9">
-        <v>0.07551580823479671</v>
+        <v>0.07904785709708585</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H10">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I10">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J10">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.09145199999999999</v>
+        <v>0.16248</v>
       </c>
       <c r="N10">
-        <v>0.274356</v>
+        <v>0.48744</v>
       </c>
       <c r="O10">
-        <v>0.2480195482318993</v>
+        <v>0.3824777723635798</v>
       </c>
       <c r="P10">
-        <v>0.2480195482318993</v>
+        <v>0.3824777723635799</v>
       </c>
       <c r="Q10">
-        <v>0.433609323924</v>
+        <v>0.9199839655999998</v>
       </c>
       <c r="R10">
-        <v>3.902483915316</v>
+        <v>8.2798556904</v>
       </c>
       <c r="S10">
-        <v>0.02666189887689414</v>
+        <v>0.04958496440922273</v>
       </c>
       <c r="T10">
-        <v>0.02666189887689414</v>
+        <v>0.04958496440922273</v>
       </c>
     </row>
   </sheetData>
